--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,13 +45,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>FR Core Observation Bp Profile</t>
+    <t>FR Core Observation Blood Pressure Profile</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>French profil Blood pressure panel with all children optional - This is a component observation. It has no value in Observation.valueQuantity and contains at least one component (systolic and/or diastolic and/or mean) | Profil français de pression artérielle avec tous les éléments fils optionnels. Il s'agit d'une Observation avec l'élément Observation.valueQuantity n'est pas renseigné et qui contient au moins un composant Pression systolique, Pression diastolique, Pression moyenne.</t>
+    <t>French profile for blood pressure.
+Profil français de la pression artérielle. Profil basé sur le profil bp d'HL7</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
+++ b/www/ig/fhir/core/StructureDefinition-fr-core-observation-bp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="754">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -661,10 +661,6 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -4998,7 +4994,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>123</v>
@@ -5024,10 +5020,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5053,16 +5049,16 @@
         <v>115</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -5111,7 +5107,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -5146,10 +5142,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5172,17 +5168,17 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -5231,7 +5227,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -5246,19 +5242,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -5266,14 +5262,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5292,17 +5288,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5351,7 +5347,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5366,16 +5362,16 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5386,14 +5382,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5412,16 +5408,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5471,7 +5467,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5486,16 +5482,16 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5506,10 +5502,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5535,16 +5531,16 @@
         <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5569,11 +5565,11 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5591,7 +5587,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>94</v>
@@ -5606,19 +5602,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -5626,10 +5622,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5652,19 +5648,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5692,16 +5688,16 @@
         <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
@@ -5711,7 +5707,7 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5735,10 +5731,10 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5746,13 +5742,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
@@ -5774,19 +5770,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5814,11 +5810,11 @@
         <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5859,10 +5855,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5870,10 +5866,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5988,10 +5984,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -6108,10 +6104,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6137,16 +6133,16 @@
         <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -6195,7 +6191,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -6216,10 +6212,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -6230,10 +6226,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6348,10 +6344,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6468,10 +6464,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6497,65 +6493,65 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6576,10 +6572,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6590,10 +6586,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6619,13 +6615,13 @@
         <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6675,7 +6671,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6696,10 +6692,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6710,10 +6706,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6739,63 +6735,63 @@
         <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6816,10 +6812,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6830,10 +6826,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6859,14 +6855,14 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6915,7 +6911,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6936,10 +6932,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6950,10 +6946,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6976,19 +6972,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -7037,7 +7033,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -7058,10 +7054,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -7072,10 +7068,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7101,16 +7097,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -7159,7 +7155,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -7180,10 +7176,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -7194,14 +7190,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7220,19 +7216,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -7260,11 +7256,11 @@
         <v>156</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
       </c>
@@ -7281,7 +7277,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -7296,30 +7292,30 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7434,10 +7430,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7554,10 +7550,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7583,16 +7579,16 @@
         <v>152</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7629,7 +7625,7 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -7639,7 +7635,7 @@
         <v>121</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7660,10 +7656,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7674,13 +7670,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>83</v>
@@ -7705,16 +7701,16 @@
         <v>152</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7763,7 +7759,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7784,10 +7780,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7798,10 +7794,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7916,10 +7912,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8036,10 +8032,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8065,23 +8061,23 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>83</v>
@@ -8123,7 +8119,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -8144,10 +8140,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -8158,10 +8154,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8187,13 +8183,13 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8243,7 +8239,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -8264,10 +8260,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -8278,10 +8274,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8307,21 +8303,21 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>83</v>
@@ -8363,7 +8359,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8384,10 +8380,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8398,10 +8394,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8427,14 +8423,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8483,7 +8479,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8504,10 +8500,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8518,10 +8514,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8544,19 +8540,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8605,7 +8601,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8626,10 +8622,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8640,10 +8636,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8669,16 +8665,16 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8727,7 +8723,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8748,10 +8744,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8762,10 +8758,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8788,19 +8784,19 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8849,7 +8845,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8864,19 +8860,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8884,10 +8880,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8910,16 +8906,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8969,7 +8965,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8990,13 +8986,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -9004,14 +9000,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -9030,19 +9026,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -9091,7 +9087,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -9106,19 +9102,19 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -9126,14 +9122,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -9152,19 +9148,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -9213,7 +9209,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9222,25 +9218,25 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -9248,10 +9244,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9277,13 +9273,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9333,7 +9329,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9354,13 +9350,13 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9368,10 +9364,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9394,17 +9390,17 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9453,7 +9449,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9468,19 +9464,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9488,10 +9484,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9514,19 +9510,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9563,26 +9559,26 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9591,30 +9587,30 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>83</v>
@@ -9636,19 +9632,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9697,7 +9693,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9706,7 +9702,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9715,27 +9711,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9758,19 +9754,19 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9798,37 +9794,37 @@
         <v>156</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9843,7 +9839,7 @@
         <v>197</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9854,14 +9850,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9880,19 +9876,19 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9920,11 +9916,11 @@
         <v>156</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9941,7 +9937,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9959,27 +9955,27 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10002,19 +9998,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -10063,7 +10059,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -10084,10 +10080,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -10098,10 +10094,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10124,16 +10120,16 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10163,7 +10159,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -10181,7 +10177,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10199,27 +10195,27 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10242,19 +10238,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10283,7 +10279,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -10301,7 +10297,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10322,10 +10318,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10336,10 +10332,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10362,16 +10358,16 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10421,7 +10417,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10439,27 +10435,27 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>496</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10482,16 +10478,16 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10541,7 +10537,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10559,27 +10555,27 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10602,19 +10598,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10663,7 +10659,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10675,19 +10671,19 @@
         <v>83</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10698,10 +10694,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10816,10 +10812,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10936,14 +10932,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10965,16 +10961,16 @@
         <v>115</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -11023,7 +11019,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -11058,10 +11054,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11084,13 +11080,13 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -11141,7 +11137,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -11150,7 +11146,7 @@
         <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>106</v>
@@ -11162,10 +11158,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -11176,10 +11172,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11202,13 +11198,13 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11259,7 +11255,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11268,7 +11264,7 @@
         <v>94</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>106</v>
@@ -11280,10 +11276,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11294,10 +11290,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11320,19 +11316,19 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -11360,11 +11356,11 @@
         <v>178</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
       </c>
@@ -11381,7 +11377,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11399,13 +11395,13 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AN72" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11416,10 +11412,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11442,19 +11438,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11482,11 +11478,11 @@
         <v>164</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
       </c>
@@ -11503,7 +11499,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11521,13 +11517,13 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AN73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11538,10 +11534,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11564,17 +11560,17 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11623,7 +11619,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11647,7 +11643,7 @@
         <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11658,10 +11654,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11687,10 +11683,10 @@
         <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11741,7 +11737,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11762,10 +11758,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11776,10 +11772,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11802,16 +11798,16 @@
         <v>95</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11861,7 +11857,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11882,10 +11878,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11896,10 +11892,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11922,16 +11918,16 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11981,7 +11977,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -12002,10 +11998,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -12016,10 +12012,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12027,7 +12023,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -12042,19 +12038,19 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -12091,7 +12087,7 @@
         <v>83</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
@@ -12101,7 +12097,7 @@
         <v>121</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -12113,19 +12109,19 @@
         <v>83</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -12136,10 +12132,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12254,10 +12250,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12374,14 +12370,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12403,16 +12399,16 @@
         <v>115</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12461,7 +12457,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12496,10 +12492,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12522,19 +12518,19 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12562,11 +12558,11 @@
         <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
       </c>
@@ -12583,7 +12579,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>94</v>
@@ -12601,16 +12597,16 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -12618,10 +12614,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12644,19 +12640,19 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="O83" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12681,40 +12677,40 @@
         <v>83</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z83" t="s" s="2">
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI83" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12723,27 +12719,27 @@
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12766,19 +12762,19 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N84" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="O84" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12806,11 +12802,11 @@
         <v>156</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
       </c>
@@ -12827,7 +12823,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12836,7 +12832,7 @@
         <v>94</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>106</v>
@@ -12851,7 +12847,7 @@
         <v>197</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12862,14 +12858,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12888,19 +12884,19 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12928,11 +12924,11 @@
         <v>156</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
       </c>
@@ -12949,7 +12945,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12967,27 +12963,27 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13013,16 +13009,16 @@
         <v>84</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="N86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -13071,7 +13067,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -13092,10 +13088,10 @@
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
@@ -13106,13 +13102,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C87" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>83</v>
@@ -13134,19 +13130,19 @@
         <v>95</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -13195,7 +13191,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -13207,19 +13203,19 @@
         <v>83</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -13230,10 +13226,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13348,10 +13344,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13468,14 +13464,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13497,16 +13493,16 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13555,7 +13551,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13590,14 +13586,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13616,19 +13612,19 @@
         <v>95</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13656,11 +13652,11 @@
         <v>156</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13677,7 +13673,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>94</v>
@@ -13695,16 +13691,16 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>83</v>
@@ -13712,10 +13708,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13830,10 +13826,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13950,10 +13946,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13979,16 +13975,16 @@
         <v>152</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="N94" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O94" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>83</v>
@@ -14025,7 +14021,7 @@
         <v>83</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
@@ -14035,7 +14031,7 @@
         <v>121</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -14056,10 +14052,10 @@
         <v>83</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
@@ -14070,13 +14066,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>83</v>
@@ -14101,16 +14097,16 @@
         <v>152</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="N95" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O95" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -14159,7 +14155,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -14180,10 +14176,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -14194,10 +14190,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14312,10 +14308,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14432,10 +14428,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14461,23 +14457,23 @@
         <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>83</v>
@@ -14519,7 +14515,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14540,10 +14536,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14554,10 +14550,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14583,13 +14579,13 @@
         <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14639,7 +14635,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14660,10 +14656,10 @@
         <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14674,10 +14670,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14703,21 +14699,21 @@
         <v>174</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>83</v>
@@ -14759,7 +14755,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14780,10 +14776,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14794,10 +14790,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14823,14 +14819,14 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14879,7 +14875,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14900,10 +14896,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14914,10 +14910,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14940,19 +14936,19 @@
         <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>83</v>
@@ -15001,7 +14997,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -15022,10 +15018,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -15036,10 +15032,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15065,16 +15061,16 @@
         <v>108</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -15123,7 +15119,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -15144,10 +15140,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -15158,10 +15154,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15184,19 +15180,19 @@
         <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="O104" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
@@ -15221,19 +15217,19 @@
         <v>83</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
@@ -15243,7 +15239,7 @@
         <v>121</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -15252,7 +15248,7 @@
         <v>94</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>106</v>
@@ -15261,27 +15257,27 @@
         <v>83</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B105" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15396,10 +15392,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15516,10 +15512,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15542,19 +15538,19 @@
         <v>95</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>83</v>
@@ -15603,7 +15599,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15624,10 +15620,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15638,10 +15634,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15667,65 +15663,65 @@
         <v>174</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q108" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="P108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q108" t="s" s="2">
+      <c r="R108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="R108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y108" t="s" s="2">
+      <c r="Z108" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="Z108" t="s" s="2">
+      <c r="AA108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15746,10 +15742,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15760,10 +15756,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15789,14 +15785,14 @@
         <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15845,7 +15841,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15866,10 +15862,10 @@
         <v>83</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AN109" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15880,10 +15876,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15909,72 +15905,72 @@
         <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="S110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF110" t="s" s="2">
+      <c r="AG110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI110" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>106</v>
@@ -15986,10 +15982,10 @@
         <v>83</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -16000,10 +15996,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B111" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16029,65 +16025,65 @@
         <v>174</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF111" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -16108,10 +16104,10 @@
         <v>83</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -16122,10 +16118,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16148,19 +16144,19 @@
         <v>83</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="O112" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -16188,11 +16184,11 @@
         <v>156</v>
       </c>
       <c r="Y112" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z112" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z112" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA112" t="s" s="2">
         <v>83</v>
       </c>
@@ -16209,7 +16205,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16218,7 +16214,7 @@
         <v>94</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>106</v>
@@ -16233,7 +16229,7 @@
         <v>197</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16244,14 +16240,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16270,19 +16266,19 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -16310,11 +16306,11 @@
         <v>156</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
       </c>
@@ -16331,7 +16327,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16349,27 +16345,27 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16395,16 +16391,16 @@
         <v>84</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M114" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="N114" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O114" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16453,7 +16449,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16474,10 +16470,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16488,13 +16484,13 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C115" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>83</v>
@@ -16516,19 +16512,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N115" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16577,7 +16573,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16589,19 +16585,19 @@
         <v>83</v>
       </c>
       <c r="AJ115" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AK115" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM115" t="s" s="2">
+      <c r="AN115" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16612,10 +16608,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16730,10 +16726,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16850,14 +16846,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16879,16 +16875,16 @@
         <v>115</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>83</v>
@@ -16937,7 +16933,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16972,10 +16968,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16998,19 +16994,19 @@
         <v>95</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M119" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="N119" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>83</v>
@@ -17038,11 +17034,11 @@
         <v>156</v>
       </c>
       <c r="Y119" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z119" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z119" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA119" t="s" s="2">
         <v>83</v>
       </c>
@@ -17059,7 +17055,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -17077,16 +17073,16 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN119" t="s" s="2">
+      <c r="AO119" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>83</v>
@@ -17094,10 +17090,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17212,10 +17208,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17332,10 +17328,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17361,16 +17357,16 @@
         <v>152</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M122" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="N122" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O122" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17407,7 +17403,7 @@
         <v>83</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC122" s="2"/>
       <c r="AD122" t="s" s="2">
@@ -17417,7 +17413,7 @@
         <v>121</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17438,10 +17434,10 @@
         <v>83</v>
       </c>
       <c r="AM122" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN122" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17452,13 +17448,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C123" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>83</v>
@@ -17483,16 +17479,16 @@
         <v>152</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>707</v>
-      </c>
       <c r="N123" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17541,7 +17537,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17562,10 +17558,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN123" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
@@ -17576,10 +17572,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17694,10 +17690,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17814,10 +17810,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17843,23 +17839,23 @@
         <v>136</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>83</v>
@@ -17901,7 +17897,7 @@
         <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17922,10 +17918,10 @@
         <v>83</v>
       </c>
       <c r="AM126" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>
@@ -17936,10 +17932,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17965,13 +17961,13 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -18021,7 +18017,7 @@
         <v>83</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -18042,10 +18038,10 @@
         <v>83</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>83</v>
@@ -18056,10 +18052,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18085,21 +18081,21 @@
         <v>174</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>83</v>
@@ -18141,7 +18137,7 @@
         <v>83</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -18162,10 +18158,10 @@
         <v>83</v>
       </c>
       <c r="AM128" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>83</v>
@@ -18176,10 +18172,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18205,14 +18201,14 @@
         <v>108</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>83</v>
@@ -18261,7 +18257,7 @@
         <v>83</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -18282,10 +18278,10 @@
         <v>83</v>
       </c>
       <c r="AM129" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN129" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>83</v>
@@ -18296,10 +18292,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18322,19 +18318,19 @@
         <v>95</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>83</v>
@@ -18383,7 +18379,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -18404,10 +18400,10 @@
         <v>83</v>
       </c>
       <c r="AM130" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>83</v>
@@ -18418,10 +18414,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18447,16 +18443,16 @@
         <v>108</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>83</v>
@@ -18505,7 +18501,7 @@
         <v>83</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -18526,10 +18522,10 @@
         <v>83</v>
       </c>
       <c r="AM131" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN131" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>83</v>
@@ -18540,10 +18536,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18566,19 +18562,19 @@
         <v>95</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N132" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="O132" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>83</v>
@@ -18603,19 +18599,19 @@
         <v>83</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="Y132" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z132" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z132" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AA132" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC132" s="2"/>
       <c r="AD132" t="s" s="2">
@@ -18625,7 +18621,7 @@
         <v>121</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
@@ -18634,7 +18630,7 @@
         <v>94</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>106</v>
@@ -18643,27 +18639,27 @@
         <v>83</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM132" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN132" t="s" s="2">
+      <c r="AO132" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP132" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18778,10 +18774,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18898,10 +18894,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18924,19 +18920,19 @@
         <v>95</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>83</v>
@@ -18985,7 +18981,7 @@
         <v>83</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -19006,10 +19002,10 @@
         <v>83</v>
       </c>
       <c r="AM135" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>83</v>
@@ -19020,10 +19016,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19049,65 +19045,65 @@
         <v>174</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q136" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="P136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q136" t="s" s="2">
+      <c r="R136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y136" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="R136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y136" t="s" s="2">
+      <c r="Z136" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="Z136" t="s" s="2">
+      <c r="AA136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF136" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -19128,10 +19124,10 @@
         <v>83</v>
       </c>
       <c r="AM136" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AN136" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>83</v>
@@ -19142,10 +19138,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19171,14 +19167,14 @@
         <v>108</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>83</v>
@@ -19227,7 +19223,7 @@
         <v>83</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -19248,10 +19244,10 @@
         <v>83</v>
       </c>
       <c r="AM137" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AN137" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>83</v>
@@ -19262,10 +19258,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19291,72 +19287,72 @@
         <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="S138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF138" t="s" s="2">
+      <c r="AG138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI138" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>106</v>
@@ -19368,10 +19364,10 @@
         <v>83</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>83</v>
@@ -19382,10 +19378,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19411,65 +19407,65 @@
         <v>174</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M139" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF139" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -19490,10 +19486,10 @@
         <v>83</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>83</v>
@@ -19504,10 +19500,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19530,19 +19526,19 @@
         <v>83</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N140" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="O140" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>83</v>
@@ -19570,11 +19566,11 @@
         <v>156</v>
       </c>
       <c r="Y140" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z140" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z140" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA140" t="s" s="2">
         <v>83</v>
       </c>
@@ -19591,7 +19587,7 @@
         <v>83</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
@@ -19600,7 +19596,7 @@
         <v>94</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>106</v>
@@ -19615,7 +19611,7 @@
         <v>197</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>83</v>
@@ -19626,14 +19622,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19652,19 +19648,19 @@
         <v>83</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>83</v>
@@ -19692,11 +19688,11 @@
         <v>156</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z141" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AA141" t="s" s="2">
         <v>83</v>
       </c>
@@ -19713,7 +19709,7 @@
         <v>83</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -19731,27 +19727,27 @@
         <v>83</v>
       </c>
       <c r="AL141" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM141" t="s" s="2">
+      <c r="AN141" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN141" t="s" s="2">
+      <c r="AO141" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP141" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP141" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19777,16 +19773,16 @@
         <v>84</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M142" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="N142" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>83</v>
@@ -19835,7 +19831,7 @@
         <v>83</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -19856,10 +19852,10 @@
         <v>83</v>
       </c>
       <c r="AM142" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN142" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>83</v>
@@ -19870,13 +19866,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>83</v>
@@ -19898,19 +19894,19 @@
         <v>95</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N143" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O143" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>83</v>
@@ -19959,7 +19955,7 @@
         <v>83</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19971,19 +19967,19 @@
         <v>83</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM143" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AK143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM143" t="s" s="2">
+      <c r="AN143" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>83</v>
@@ -19994,10 +19990,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20112,10 +20108,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20232,14 +20228,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20261,16 +20257,16 @@
         <v>115</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N146" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>83</v>
@@ -20319,7 +20315,7 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -20354,10 +20350,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20380,19 +20376,19 @@
         <v>95</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>83</v>
@@ -20420,11 +20416,11 @@
         <v>156</v>
       </c>
       <c r="Y147" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z147" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z147" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA147" t="s" s="2">
         <v>83</v>
       </c>
@@ -20441,7 +20437,7 @@
         <v>83</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>94</v>
@@ -20459,16 +20455,16 @@
         <v>83</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM147" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN147" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN147" t="s" s="2">
+      <c r="AO147" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>83</v>
@@ -20476,10 +20472,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20594,10 +20590,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20714,10 +20710,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20743,16 +20739,16 @@
         <v>152</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>83</v>
@@ -20789,7 +20785,7 @@
         <v>83</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC150" s="2"/>
       <c r="AD150" t="s" s="2">
@@ -20799,7 +20795,7 @@
         <v>121</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -20820,10 +20816,10 @@
         <v>83</v>
       </c>
       <c r="AM150" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN150" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>83</v>
@@ -20834,13 +20830,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>83</v>
@@ -20865,16 +20861,16 @@
         <v>152</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -20923,7 +20919,7 @@
         <v>83</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -20944,10 +20940,10 @@
         <v>83</v>
       </c>
       <c r="AM151" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN151" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>83</v>
@@ -20958,10 +20954,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21076,10 +21072,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21196,10 +21192,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21225,23 +21221,23 @@
         <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>83</v>
@@ -21283,7 +21279,7 @@
         <v>83</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -21304,10 +21300,10 @@
         <v>83</v>
       </c>
       <c r="AM154" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN154" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>83</v>
@@ -21318,10 +21314,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21347,13 +21343,13 @@
         <v>108</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -21403,7 +21399,7 @@
         <v>83</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -21424,10 +21420,10 @@
         <v>83</v>
       </c>
       <c r="AM155" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN155" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>83</v>
@@ -21438,10 +21434,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21467,21 +21463,21 @@
         <v>174</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>83</v>
@@ -21523,7 +21519,7 @@
         <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -21544,10 +21540,10 @@
         <v>83</v>
       </c>
       <c r="AM156" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN156" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>83</v>
@@ -21558,10 +21554,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21587,14 +21583,14 @@
         <v>108</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>83</v>
@@ -21643,7 +21639,7 @@
         <v>83</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
@@ -21664,10 +21660,10 @@
         <v>83</v>
       </c>
       <c r="AM157" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN157" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>83</v>
@@ -21678,10 +21674,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21704,19 +21700,19 @@
         <v>95</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>83</v>
@@ -21765,7 +21761,7 @@
         <v>83</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -21786,10 +21782,10 @@
         <v>83</v>
       </c>
       <c r="AM158" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN158" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>83</v>
@@ -21800,10 +21796,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21829,16 +21825,16 @@
         <v>108</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>83</v>
@@ -21887,7 +21883,7 @@
         <v>83</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>81</v>
@@ -21908,10 +21904,10 @@
         <v>83</v>
       </c>
       <c r="AM159" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN159" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>83</v>
@@ -21922,10 +21918,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21948,19 +21944,19 @@
         <v>95</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N160" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="O160" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>83</v>
@@ -21985,40 +21981,40 @@
         <v>83</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z160" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z160" t="s" s="2">
+      <c r="AA160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI160" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>106</v>
@@ -22027,27 +22023,27 @@
         <v>83</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM160" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN160" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AN160" t="s" s="2">
+      <c r="AO160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP160" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP160" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22070,19 +22066,19 @@
         <v>83</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N161" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="O161" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>83</v>
@@ -22110,11 +22106,11 @@
         <v>156</v>
       </c>
       <c r="Y161" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z161" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z161" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA161" t="s" s="2">
         <v>83</v>
       </c>
@@ -22131,7 +22127,7 @@
         <v>83</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>81</v>
@@ -22140,7 +22136,7 @@
         <v>94</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>106</v>
@@ -22155,7 +22151,7 @@
         <v>197</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>83</v>
@@ -22166,14 +22162,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22192,19 +22188,19 @@
         <v>83</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>83</v>
@@ -22232,11 +22228,11 @@
         <v>156</v>
       </c>
       <c r="Y162" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z162" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z162" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AA162" t="s" s="2">
         <v>83</v>
       </c>
@@ -22253,7 +22249,7 @@
         <v>83</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
@@ -22271,27 +22267,27 @@
         <v>83</v>
       </c>
       <c r="AL162" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM162" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AM162" t="s" s="2">
+      <c r="AN162" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AN162" t="s" s="2">
+      <c r="AO162" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP162" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AO162" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP162" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22317,16 +22313,16 @@
         <v>84</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M163" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="N163" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O163" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -22375,7 +22371,7 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
@@ -22396,10 +22392,10 @@
         <v>83</v>
       </c>
       <c r="AM163" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN163" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>83</v>
